--- a/uGridNet Start Packet/uGrid_Input.xlsx
+++ b/uGridNet Start Packet/uGrid_Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phy\Documents\OnePower\Python Models Local Copy\uGrid-master-GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oregonstateuniversity-my.sharepoint.com/personal/cotillaj_oregonstate_edu/Documents/Teaching/ENGR100/Fall 21/Simulations/OnePower-Codes/uGridNet Start Packet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B03C34-6618-477A-B621-2B6EE2947AA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F8B03C34-6618-477A-B621-2B6EE2947AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29BE7E92-30ED-1B45-989B-981671A6A941}"/>
   <bookViews>
-    <workbookView xWindow="3108" yWindow="2088" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{68709F03-E2F0-4CA3-951F-ABB4DD9E87C4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="21100" activeTab="4" xr2:uid="{68709F03-E2F0-4CA3-951F-ABB4DD9E87C4}"/>
   </bookViews>
   <sheets>
     <sheet name="PSO" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -643,29 +646,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810FAEA2-4EF8-4AD5-9CE0-4B60A3CE1971}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>50</v>
       </c>
@@ -773,47 +776,47 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -932,7 +935,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>15</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="O3" t="s">
         <v>67</v>
       </c>
@@ -1074,15 +1077,15 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1123,9 +1126,9 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -1205,27 +1208,27 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>50</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>85</v>
